--- a/biology/Zoologie/Diplodactylus/Diplodactylus.xlsx
+++ b/biology/Zoologie/Diplodactylus/Diplodactylus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Diplodactylus est un genre de gecko de la famille des Diplodactylidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Diplodactylus est un genre de gecko de la famille des Diplodactylidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les 27 espèces de ce genre sont endémiques d'Australie[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les 27 espèces de ce genre sont endémiques d'Australie.
 </t>
         </is>
       </c>
@@ -542,7 +556,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Ce sont en général des geckos de taille petite à moyenne. Les couleurs sont très variées, selon les espèces. On trouve à la fois des geckos arboricoles et terrestres, principalement nocturnes et insectivores.
 </t>
@@ -573,9 +589,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Selon The Reptile Database   (7 mai 2017)[2] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Selon The Reptile Database   (7 mai 2017) :
 Diplodactylus ameyi Couper &amp; Oliver, 2016
 Diplodactylus barraganae Couper, Oliver &amp; Pepper, 2014
 Diplodactylus bilybara Couper, Pepper &amp; Oliver, 2014
@@ -630,7 +648,9 @@
           <t>Taxinomie</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Ce genre fut un peu fourre-tout et de nombreuses espèces sont déplacées vers d'autres genres (parfois créés spécialement) au fur et à mesure que des analyses plus poussées (généralement basées sur l'analyse génétique) précisent les choses. Elles ont été déplacées vers les genres Strophurus et Lucasium.
 </t>
@@ -661,7 +681,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>Gray, 1832 : Characters of a new genus of Mammalia and of a new genus and two new species of lizards from New Holland. Proceedings of the Zoological Society of London for the year, vol. 1832, p. 39-40 (texte intégral).</t>
         </is>
